--- a/biology/Botanique/Bosquet/Bosquet.xlsx
+++ b/biology/Botanique/Bosquet/Bosquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bosquet est un boisement de petite étendue. Pour l'Inventaire forestier national français, la surface d'un bosquet est comprise entre 5 et 50 ares, ce qui distingue ce petit bois du moyen bois (boqueteau avec une surface comprise entre 50 ares et 4 hectares) ou à un grand bois (forêt de surface supérieure à 4 ha)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bosquet est un boisement de petite étendue. Pour l'Inventaire forestier national français, la surface d'un bosquet est comprise entre 5 et 50 ares, ce qui distingue ce petit bois du moyen bois (boqueteau avec une surface comprise entre 50 ares et 4 hectares) ou à un grand bois (forêt de surface supérieure à 4 ha).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bosquet se distingue d'un taillis par l'absence de sous-bois arbustif ou herbacé[réf. souhaitée] ; et d'un verger qui est composé d'arbres plantés et cultivés pour leurs fruits.
 Dans l'Antiquité, il existait des bosquets sacrés consacrés à une divinité, tels que le jardin des oliviers de Gethsémani.
 Le terme vient probablement de l'occitan bosquet, « petit bois », de bòsc, « bois ».
-En France, le maintien des bosquets de 10 à 50 ares[2] fait partie des bonnes conditions agricoles et environnementales (BCAE), qui conditionnent les aides de la politique agricole commune.
+En France, le maintien des bosquets de 10 à 50 ares fait partie des bonnes conditions agricoles et environnementales (BCAE), qui conditionnent les aides de la politique agricole commune.
 </t>
         </is>
       </c>
